--- a/data/trans_orig/P6711-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P6711-Clase-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>22267</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14670</v>
+        <v>14261</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>33868</v>
+        <v>32359</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07353686657011747</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0484473539267336</v>
+        <v>0.04709641632611685</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1118478876107402</v>
+        <v>0.1068634648763722</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>27</v>
@@ -763,19 +763,19 @@
         <v>29487</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>20215</v>
+        <v>19873</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>42129</v>
+        <v>41055</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1533587455922958</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1051384469468477</v>
+        <v>0.1033582583261494</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2191109242535439</v>
+        <v>0.2135280562350485</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>50</v>
@@ -784,19 +784,19 @@
         <v>51754</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>38871</v>
+        <v>38717</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>67066</v>
+        <v>65758</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1045372553733104</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07851520700007641</v>
+        <v>0.07820438267135839</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1354670826291319</v>
+        <v>0.1328241365598373</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>17569</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10524</v>
+        <v>11322</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>28228</v>
+        <v>28355</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05802121685064371</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03475608955298827</v>
+        <v>0.03739059466447425</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09322174644158698</v>
+        <v>0.09364278970326162</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>12</v>
@@ -834,19 +834,19 @@
         <v>12778</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>7041</v>
+        <v>7079</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>21765</v>
+        <v>21957</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06645764647615966</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0366177973218003</v>
+        <v>0.03681882329654452</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1131979827188136</v>
+        <v>0.1141995757384269</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>29</v>
@@ -855,19 +855,19 @@
         <v>30347</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>20225</v>
+        <v>21447</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>41965</v>
+        <v>43539</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06129766939354994</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04085256930641812</v>
+        <v>0.04332019595643185</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08476398694855024</v>
+        <v>0.08794497093689331</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>58184</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>45450</v>
+        <v>45079</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>75521</v>
+        <v>73404</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1921521180375002</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.150097910755092</v>
+        <v>0.1488720442912327</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2494060851148427</v>
+        <v>0.242416665342172</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>23</v>
@@ -905,19 +905,19 @@
         <v>26501</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>17456</v>
+        <v>17484</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>37902</v>
+        <v>36791</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1378324083055731</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.0907892949587881</v>
+        <v>0.09093217780876679</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1971271112301131</v>
+        <v>0.1913499283716693</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>77</v>
@@ -926,19 +926,19 @@
         <v>84686</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>68730</v>
+        <v>67629</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>103644</v>
+        <v>103095</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1710559957462867</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1388271656850827</v>
+        <v>0.136603168166888</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2093495356569405</v>
+        <v>0.2082417932091697</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>40343</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>30556</v>
+        <v>28881</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>53890</v>
+        <v>52642</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1332334828754036</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1009095794172238</v>
+        <v>0.095377650808086</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1779713500682453</v>
+        <v>0.1738486712888421</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>25</v>
@@ -976,19 +976,19 @@
         <v>27088</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>18604</v>
+        <v>17350</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>38877</v>
+        <v>37726</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1408823243711254</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09676066883224192</v>
+        <v>0.09023797307315448</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2021977404481772</v>
+        <v>0.1962118082260274</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>66</v>
@@ -997,19 +997,19 @@
         <v>67431</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>52993</v>
+        <v>53741</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>83845</v>
+        <v>83218</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1362040601552931</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1070406046147274</v>
+        <v>0.1085516750391839</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1693590924699248</v>
+        <v>0.1680922889368589</v>
       </c>
     </row>
     <row r="8">
@@ -1026,19 +1026,19 @@
         <v>164439</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>147347</v>
+        <v>148121</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>183337</v>
+        <v>183717</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5430563156663351</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4866116680209458</v>
+        <v>0.4891651369556929</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6054675390847669</v>
+        <v>0.6067196222606304</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>87</v>
@@ -1047,19 +1047,19 @@
         <v>96418</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>81324</v>
+        <v>80667</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>110583</v>
+        <v>109743</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5014688752548461</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4229633464741356</v>
+        <v>0.4195456453203821</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.575135763787575</v>
+        <v>0.570769699424311</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>235</v>
@@ -1068,19 +1068,19 @@
         <v>260858</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>237292</v>
+        <v>237833</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>282462</v>
+        <v>285144</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5269050193315599</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4793047067782533</v>
+        <v>0.4803988101109645</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5705442503949658</v>
+        <v>0.5759617854565535</v>
       </c>
     </row>
     <row r="9">
@@ -1172,19 +1172,19 @@
         <v>14985</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8810</v>
+        <v>8351</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24777</v>
+        <v>24168</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05859648119300877</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0344472347237522</v>
+        <v>0.03265581363238403</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09688290445891273</v>
+        <v>0.09450195791750056</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>24</v>
@@ -1193,19 +1193,19 @@
         <v>26054</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>17973</v>
+        <v>17580</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>36789</v>
+        <v>37420</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1559773722856295</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1075989326458443</v>
+        <v>0.1052447178508064</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2202445402250855</v>
+        <v>0.224027013453886</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>38</v>
@@ -1214,19 +1214,19 @@
         <v>41039</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>30080</v>
+        <v>29236</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>56525</v>
+        <v>55381</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09707092623999018</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07114961450224425</v>
+        <v>0.06915259620160762</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1336998810300836</v>
+        <v>0.1309942083637883</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>17411</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>10334</v>
+        <v>10352</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>28657</v>
+        <v>28863</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.06807924210463701</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.04040913780632783</v>
+        <v>0.04047775048183334</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1120565323528913</v>
+        <v>0.1128612840330151</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>3</v>
@@ -1264,19 +1264,19 @@
         <v>4713</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>958</v>
+        <v>947</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>13441</v>
+        <v>13075</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02821565165757561</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.005732355919315795</v>
+        <v>0.005672198340018742</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0804684028110679</v>
+        <v>0.07827819755690175</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>19</v>
@@ -1285,19 +1285,19 @@
         <v>22124</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>13396</v>
+        <v>13259</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>34591</v>
+        <v>33780</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.05232944249998892</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03168481234274749</v>
+        <v>0.0313623113345861</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.08181802682843163</v>
+        <v>0.07989983573671851</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>58757</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>44137</v>
+        <v>45094</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>74860</v>
+        <v>74585</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2297512049602329</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.172585521218481</v>
+        <v>0.1763256478278662</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2927210904935229</v>
+        <v>0.2916428723011783</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>24</v>
@@ -1335,19 +1335,19 @@
         <v>24674</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>16455</v>
+        <v>16112</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>36086</v>
+        <v>35734</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1477170855053592</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.09851467065636327</v>
+        <v>0.09645601815924326</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2160398379560705</v>
+        <v>0.2139301272175737</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>75</v>
@@ -1356,19 +1356,19 @@
         <v>83430</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>66699</v>
+        <v>66650</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>102687</v>
+        <v>103184</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.197340151975083</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1577652505549261</v>
+        <v>0.1576490623016111</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2428870289197324</v>
+        <v>0.2440626545513502</v>
       </c>
     </row>
     <row r="13">
@@ -1385,19 +1385,19 @@
         <v>56956</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>44254</v>
+        <v>44379</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>70098</v>
+        <v>71531</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2227097170345952</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1730419480922382</v>
+        <v>0.1735328499046873</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2740979183916103</v>
+        <v>0.2797014501680349</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>34</v>
@@ -1406,19 +1406,19 @@
         <v>38161</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>27571</v>
+        <v>27815</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>50778</v>
+        <v>51542</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2284633666521375</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1650591124030814</v>
+        <v>0.1665229356144658</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3039976221843888</v>
+        <v>0.3085678601344676</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>88</v>
@@ -1427,19 +1427,19 @@
         <v>95117</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>77224</v>
+        <v>78150</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>114080</v>
+        <v>114852</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2249829399795276</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1826587773993863</v>
+        <v>0.1848500361678651</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2698353035522579</v>
+        <v>0.2716622890985781</v>
       </c>
     </row>
     <row r="14">
@@ -1456,19 +1456,19 @@
         <v>107632</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>90859</v>
+        <v>91749</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>124535</v>
+        <v>124470</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4208633547075261</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.35528048712619</v>
+        <v>0.3587575353942889</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4869612448115295</v>
+        <v>0.4867071331882176</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>67</v>
@@ -1477,19 +1477,19 @@
         <v>73433</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>59452</v>
+        <v>60401</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>86414</v>
+        <v>87507</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4396265238992982</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3559245792965618</v>
+        <v>0.3616083821023581</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5173411719780638</v>
+        <v>0.523884795307941</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>161</v>
@@ -1498,19 +1498,19 @@
         <v>181065</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>161291</v>
+        <v>157018</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>204558</v>
+        <v>201410</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4282765393054103</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3815065912383705</v>
+        <v>0.371398366640054</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.483846389343068</v>
+        <v>0.4763990197556091</v>
       </c>
     </row>
     <row r="15">
@@ -1602,19 +1602,19 @@
         <v>27656</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>18355</v>
+        <v>18720</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>39050</v>
+        <v>40547</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09856469010567782</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06541653205451574</v>
+        <v>0.06671783975661588</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1391714799790048</v>
+        <v>0.1445069738915088</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -1623,19 +1623,19 @@
         <v>3079</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>965</v>
+        <v>984</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8372</v>
+        <v>8240</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0281070568230875</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.008813507655056447</v>
+        <v>0.008985840161616899</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07642426744602449</v>
+        <v>0.07522323599258851</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>29</v>
@@ -1644,19 +1644,19 @@
         <v>30735</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>21252</v>
+        <v>21377</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>44362</v>
+        <v>43738</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07878161210993936</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05447416353316547</v>
+        <v>0.05479561184925368</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1137115197869747</v>
+        <v>0.112110922811245</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>9020</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4044</v>
+        <v>3838</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>16053</v>
+        <v>15774</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03214733430179037</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01441338650531018</v>
+        <v>0.01368009641302637</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05721173849284676</v>
+        <v>0.05621697693948949</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -1694,19 +1694,19 @@
         <v>4102</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>982</v>
+        <v>1165</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>10078</v>
+        <v>10576</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03744532586304454</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.008963526724427826</v>
+        <v>0.0106375142032334</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.09199773587424703</v>
+        <v>0.09655005480822183</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>13</v>
@@ -1715,19 +1715,19 @@
         <v>13122</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>7847</v>
+        <v>6879</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>21504</v>
+        <v>21200</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0336349031484004</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02011412025301871</v>
+        <v>0.01763211098987043</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05512008406631329</v>
+        <v>0.0543403035855869</v>
       </c>
     </row>
     <row r="18">
@@ -1744,19 +1744,19 @@
         <v>37920</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>27819</v>
+        <v>27388</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>50130</v>
+        <v>49965</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1351450380743934</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.09914630726553775</v>
+        <v>0.09761011508398471</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1786609986173385</v>
+        <v>0.1780706932948417</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>12</v>
@@ -1765,19 +1765,19 @@
         <v>13085</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>7160</v>
+        <v>7116</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>22320</v>
+        <v>21174</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1194575463594528</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.06536587919184851</v>
+        <v>0.06496055382757225</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2037590824770208</v>
+        <v>0.1933019420117801</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>49</v>
@@ -1786,19 +1786,19 @@
         <v>51006</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>37683</v>
+        <v>37246</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>65234</v>
+        <v>64238</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1307403077748468</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.09659058335055412</v>
+        <v>0.09547088096611997</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1672100496915499</v>
+        <v>0.1646579210829581</v>
       </c>
     </row>
     <row r="19">
@@ -1815,19 +1815,19 @@
         <v>48424</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>37312</v>
+        <v>36694</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>61999</v>
+        <v>61168</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1725792774817983</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1329782899954918</v>
+        <v>0.1307730432909012</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2209577268759564</v>
+        <v>0.2179984700711044</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>17</v>
@@ -1836,19 +1836,19 @@
         <v>17425</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>10407</v>
+        <v>10953</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>24413</v>
+        <v>26285</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1590704187487119</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09500256771824463</v>
+        <v>0.09999040059273753</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2228678782401609</v>
+        <v>0.2399565778964827</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>66</v>
@@ -1857,19 +1857,19 @@
         <v>65849</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>50554</v>
+        <v>52331</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>79520</v>
+        <v>81306</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1687862632475819</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1295827450701252</v>
+        <v>0.1341374593154421</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2038291950971538</v>
+        <v>0.2084063552169799</v>
       </c>
     </row>
     <row r="20">
@@ -1886,19 +1886,19 @@
         <v>157569</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>141557</v>
+        <v>141393</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>173507</v>
+        <v>175689</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5615636600363401</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5044967292896808</v>
+        <v>0.5039145771960331</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6183660310877367</v>
+        <v>0.6261403217171377</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>68</v>
@@ -1907,19 +1907,19 @@
         <v>71850</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>62035</v>
+        <v>61297</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>81948</v>
+        <v>81313</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6559196522057031</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5663208589315553</v>
+        <v>0.5595826406247121</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7481009273634919</v>
+        <v>0.7423059082035844</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>221</v>
@@ -1928,19 +1928,19 @@
         <v>229419</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>210304</v>
+        <v>210977</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>247843</v>
+        <v>248857</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5880569137192315</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5390603148935523</v>
+        <v>0.5407858824557594</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6352804193724901</v>
+        <v>0.6378798503351727</v>
       </c>
     </row>
     <row r="21">
@@ -2032,19 +2032,19 @@
         <v>66432</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>52210</v>
+        <v>50967</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>83415</v>
+        <v>83313</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1567235851464052</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1231735276875978</v>
+        <v>0.1202407300101977</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1967900159646236</v>
+        <v>0.1965490318823305</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>42</v>
@@ -2053,19 +2053,19 @@
         <v>46144</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>33427</v>
+        <v>34717</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>59750</v>
+        <v>60110</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1539020182574773</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1114871454822796</v>
+        <v>0.115789567533043</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1992807925837748</v>
+        <v>0.2004799741953175</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>101</v>
@@ -2074,19 +2074,19 @@
         <v>112576</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>91818</v>
+        <v>91403</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>132664</v>
+        <v>134242</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1555546195454378</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1268723182327169</v>
+        <v>0.1262981827131163</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1833115821182693</v>
+        <v>0.1854926139866235</v>
       </c>
     </row>
     <row r="23">
@@ -2103,19 +2103,19 @@
         <v>35908</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>24886</v>
+        <v>25758</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>49100</v>
+        <v>49274</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.0847142559168739</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.05871119626958474</v>
+        <v>0.06076863731647504</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1158364825608036</v>
+        <v>0.116245721275598</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>24</v>
@@ -2124,19 +2124,19 @@
         <v>26206</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>17300</v>
+        <v>17944</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>37363</v>
+        <v>38461</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.08740436173041774</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.05769824697639108</v>
+        <v>0.05984701499343655</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1246155011467783</v>
+        <v>0.1282771344510994</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>58</v>
@@ -2145,19 +2145,19 @@
         <v>62115</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>48232</v>
+        <v>46891</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>78435</v>
+        <v>78235</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.08582875763977647</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.06664662406243203</v>
+        <v>0.06479289833512593</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1083801186798466</v>
+        <v>0.1081036752444306</v>
       </c>
     </row>
     <row r="24">
@@ -2174,19 +2174,19 @@
         <v>84783</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>69329</v>
+        <v>68887</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>101519</v>
+        <v>107298</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2000180664563928</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1635597371668299</v>
+        <v>0.1625167817558045</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2395007017692433</v>
+        <v>0.2531344738840211</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>55</v>
@@ -2195,19 +2195,19 @@
         <v>58704</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>45491</v>
+        <v>46438</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>73208</v>
+        <v>72408</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1957926149019387</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1517238323935101</v>
+        <v>0.1548831157280903</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2441645808764139</v>
+        <v>0.241496083027671</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>135</v>
@@ -2216,19 +2216,19 @@
         <v>143487</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>122605</v>
+        <v>119578</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>166329</v>
+        <v>164818</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1982674761956786</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1694135487853348</v>
+        <v>0.1652299008568334</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2298293916894779</v>
+        <v>0.2277422681418953</v>
       </c>
     </row>
     <row r="25">
@@ -2245,19 +2245,19 @@
         <v>75107</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>60354</v>
+        <v>61113</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>92831</v>
+        <v>93352</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1771904042261386</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1423866483915347</v>
+        <v>0.1441753844792034</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2190034062071946</v>
+        <v>0.2202348036367795</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>56</v>
@@ -2266,19 +2266,19 @@
         <v>57985</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>44842</v>
+        <v>45648</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>72847</v>
+        <v>73382</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1933951890115567</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1495599939678769</v>
+        <v>0.1522481702936344</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2429627807948586</v>
+        <v>0.2447476386702683</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>129</v>
@@ -2287,19 +2287,19 @@
         <v>133092</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>112145</v>
+        <v>112882</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>156835</v>
+        <v>155677</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1839039916514682</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1549600676733865</v>
+        <v>0.1559784799425339</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2167108671996691</v>
+        <v>0.2151108314326287</v>
       </c>
     </row>
     <row r="26">
@@ -2316,19 +2316,19 @@
         <v>161647</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>141168</v>
+        <v>139798</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>184338</v>
+        <v>182452</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3813536882541896</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3330404696506094</v>
+        <v>0.3298078175938964</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.434886348288033</v>
+        <v>0.430436352419644</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>105</v>
@@ -2337,19 +2337,19 @@
         <v>110789</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>95240</v>
+        <v>95376</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>128916</v>
+        <v>128066</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3695058160986096</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3176485295053747</v>
+        <v>0.3181020534547813</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4299652610430204</v>
+        <v>0.4271299490681206</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>258</v>
@@ -2358,19 +2358,19 @@
         <v>272435</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>246056</v>
+        <v>245689</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>298332</v>
+        <v>300527</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3764451549676389</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.339994906648271</v>
+        <v>0.3394881544835383</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4122281387750872</v>
+        <v>0.415261796398112</v>
       </c>
     </row>
     <row r="27">
@@ -2462,19 +2462,19 @@
         <v>26766</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>18038</v>
+        <v>17901</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>37665</v>
+        <v>36402</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1761672891757834</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1187226402801225</v>
+        <v>0.1178189258418413</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2478996927695299</v>
+        <v>0.2395869173047626</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>24</v>
@@ -2483,19 +2483,19 @@
         <v>26232</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>17380</v>
+        <v>18200</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>37679</v>
+        <v>38607</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1509523074634585</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1000127621225944</v>
+        <v>0.1047315571079603</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2168264327162434</v>
+        <v>0.2221693782347035</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>49</v>
@@ -2504,19 +2504,19 @@
         <v>52998</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>39555</v>
+        <v>40062</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>68496</v>
+        <v>67665</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1627144309821984</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1214433422740095</v>
+        <v>0.1229985364570396</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2102989664869555</v>
+        <v>0.2077462594214287</v>
       </c>
     </row>
     <row r="29">
@@ -2536,16 +2536,16 @@
         <v>1924</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>11646</v>
+        <v>11785</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03469903551136893</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01266123842411978</v>
+        <v>0.01266387582958507</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.07665195878932514</v>
+        <v>0.07756620564426028</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>22</v>
@@ -2554,19 +2554,19 @@
         <v>25150</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>16651</v>
+        <v>16468</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>36562</v>
+        <v>36329</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1447275272712311</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.09581863476414147</v>
+        <v>0.09476561418250184</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2103964239673538</v>
+        <v>0.209058877835868</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>27</v>
@@ -2575,19 +2575,19 @@
         <v>30422</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>20417</v>
+        <v>21356</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>43486</v>
+        <v>44887</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.09340213963362776</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.06268507073213282</v>
+        <v>0.06556600290415078</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1335106985895115</v>
+        <v>0.1378131603409898</v>
       </c>
     </row>
     <row r="30">
@@ -2604,19 +2604,19 @@
         <v>25837</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>17463</v>
+        <v>17327</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>35679</v>
+        <v>36004</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1700541964507912</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1149375226301955</v>
+        <v>0.1140437707543554</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.234833494256439</v>
+        <v>0.2369670349686187</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>15</v>
@@ -2625,19 +2625,19 @@
         <v>15576</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>8813</v>
+        <v>9132</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>24543</v>
+        <v>23554</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.089635724596766</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.05071487700799255</v>
+        <v>0.05255096572881441</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1412321058766719</v>
+        <v>0.1355408796095354</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>40</v>
@@ -2646,19 +2646,19 @@
         <v>41414</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>30418</v>
+        <v>30869</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>55884</v>
+        <v>55368</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1271488193880665</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.09339090603436598</v>
+        <v>0.09477455091833477</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1715750493064101</v>
+        <v>0.1699905428292285</v>
       </c>
     </row>
     <row r="31">
@@ -2675,19 +2675,19 @@
         <v>41572</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>31410</v>
+        <v>31123</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>54298</v>
+        <v>54896</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2736138707452246</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2067344743863945</v>
+        <v>0.204845071332936</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3573772009466898</v>
+        <v>0.3613132418150901</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>36</v>
@@ -2696,19 +2696,19 @@
         <v>38331</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>28018</v>
+        <v>28508</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>51361</v>
+        <v>49990</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2205759786091596</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1612293980280912</v>
+        <v>0.1640516075592748</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2955589729362454</v>
+        <v>0.2876690051978208</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>74</v>
@@ -2717,19 +2717,19 @@
         <v>79902</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>65124</v>
+        <v>64443</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>98210</v>
+        <v>97476</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2453167555645152</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1999444785332093</v>
+        <v>0.1978531690200525</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3015267466518533</v>
+        <v>0.2992724554021046</v>
       </c>
     </row>
     <row r="32">
@@ -2746,19 +2746,19 @@
         <v>52488</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>40268</v>
+        <v>40065</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>64003</v>
+        <v>64974</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3454656081168318</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2650337597551167</v>
+        <v>0.2636992162274396</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4212554678875117</v>
+        <v>0.4276430930774789</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>61</v>
@@ -2767,19 +2767,19 @@
         <v>68486</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>55329</v>
+        <v>54886</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>81805</v>
+        <v>81831</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3941084620593848</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3183931029893441</v>
+        <v>0.315845356414743</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4707540572139983</v>
+        <v>0.4709044059058475</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>111</v>
@@ -2788,19 +2788,19 @@
         <v>120975</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>103455</v>
+        <v>102963</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>140136</v>
+        <v>141031</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3714178544315921</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3176294493415485</v>
+        <v>0.3161182552307422</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4302476463989766</v>
+        <v>0.4329960551665921</v>
       </c>
     </row>
     <row r="33">
@@ -2892,19 +2892,19 @@
         <v>158106</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>135187</v>
+        <v>135855</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>186889</v>
+        <v>185705</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1117403237839614</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.09554214818584224</v>
+        <v>0.09601411831432519</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1320819288944506</v>
+        <v>0.1312452899406831</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>120</v>
@@ -2913,19 +2913,19 @@
         <v>130995</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>110688</v>
+        <v>110165</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>154870</v>
+        <v>154988</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1389940255188589</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1174469057568899</v>
+        <v>0.1168915794506577</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1643263255711285</v>
+        <v>0.1644525270516064</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>267</v>
@@ -2934,19 +2934,19 @@
         <v>289101</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>257104</v>
+        <v>254911</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>321913</v>
+        <v>321266</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1226359454313633</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1090628733644938</v>
+        <v>0.1081325823151612</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1365542915639117</v>
+        <v>0.1362798662943059</v>
       </c>
     </row>
     <row r="35">
@@ -2963,19 +2963,19 @@
         <v>85180</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>69244</v>
+        <v>67569</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>105784</v>
+        <v>104315</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.06020037512586694</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.04893770104894796</v>
+        <v>0.04775418539566483</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.07476204551267869</v>
+        <v>0.07372366413006391</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>65</v>
@@ -2984,19 +2984,19 @@
         <v>72949</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>56688</v>
+        <v>56564</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>91225</v>
+        <v>90590</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.07740353481154212</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.06014954235716129</v>
+        <v>0.06001801656017252</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.09679515838793563</v>
+        <v>0.09612198686576758</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>146</v>
@@ -3005,19 +3005,19 @@
         <v>158129</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>131835</v>
+        <v>135599</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>188799</v>
+        <v>185609</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.06707794063598424</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.05592393074315857</v>
+        <v>0.05752063746756424</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.0800877488342974</v>
+        <v>0.07873479422861102</v>
       </c>
     </row>
     <row r="36">
@@ -3034,19 +3034,19 @@
         <v>265481</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>233408</v>
+        <v>234524</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>298476</v>
+        <v>294653</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1876266613425647</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1649590763311311</v>
+        <v>0.1657479528392332</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2109451183413873</v>
+        <v>0.2082437424473441</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>129</v>
@@ -3055,19 +3055,19 @@
         <v>138541</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>117433</v>
+        <v>118050</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>162079</v>
+        <v>163284</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1470010982423131</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1246042685751718</v>
+        <v>0.1252584811721371</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1719762281265745</v>
+        <v>0.1732543495216936</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>376</v>
@@ -3076,19 +3076,19 @@
         <v>404023</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>366978</v>
+        <v>369052</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>447288</v>
+        <v>442007</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1713851698542284</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1556707492650017</v>
+        <v>0.1565506023755287</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1897380257855452</v>
+        <v>0.1874978012176911</v>
       </c>
     </row>
     <row r="37">
@@ -3105,19 +3105,19 @@
         <v>262402</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>236011</v>
+        <v>235593</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>294349</v>
+        <v>293026</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.185450178165159</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1667985190553989</v>
+        <v>0.1665037524462046</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2080289748628635</v>
+        <v>0.2070934512695125</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>168</v>
@@ -3126,19 +3126,19 @@
         <v>178990</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>154074</v>
+        <v>155638</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>204680</v>
+        <v>205981</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1899194187406686</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1634824785621325</v>
+        <v>0.1651417495418325</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2171788943293518</v>
+        <v>0.2185586337114716</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>423</v>
@@ -3147,19 +3147,19 @@
         <v>441392</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>405914</v>
+        <v>401445</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>483215</v>
+        <v>482659</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1872369135905202</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.172187602959589</v>
+        <v>0.1702916191214498</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2049781599579034</v>
+        <v>0.2047426003583778</v>
       </c>
     </row>
     <row r="38">
@@ -3176,19 +3176,19 @@
         <v>643775</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>610647</v>
+        <v>605311</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>684265</v>
+        <v>682599</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.454982461582448</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.4315698383252452</v>
+        <v>0.4277984070312221</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.4835989102218116</v>
+        <v>0.4824215459714211</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>388</v>
@@ -3197,19 +3197,19 @@
         <v>420976</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>386776</v>
+        <v>388758</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>451887</v>
+        <v>450910</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.4466819226866173</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.4103940742993996</v>
+        <v>0.4124963702658143</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.4794807627739177</v>
+        <v>0.4784439599874707</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>986</v>
@@ -3218,19 +3218,19 @@
         <v>1064751</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1015766</v>
+        <v>1017221</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1114004</v>
+        <v>1115899</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.4516640304879039</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.4308848836459407</v>
+        <v>0.4315018458272424</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.4725570084028041</v>
+        <v>0.4733606931671573</v>
       </c>
     </row>
     <row r="39">
@@ -3563,19 +3563,19 @@
         <v>32264</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>22344</v>
+        <v>21483</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>44284</v>
+        <v>44458</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1168758578419315</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08094200342117872</v>
+        <v>0.07782298795194217</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1604178535822393</v>
+        <v>0.1610502985068814</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>39</v>
@@ -3584,19 +3584,19 @@
         <v>40742</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>29962</v>
+        <v>30430</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>53404</v>
+        <v>54209</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1902305794038572</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1398957560237943</v>
+        <v>0.1420808223361255</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.249348264514307</v>
+        <v>0.2531059983891805</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>68</v>
@@ -3605,19 +3605,19 @@
         <v>73006</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>58532</v>
+        <v>58761</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>88546</v>
+        <v>92238</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.148923668395628</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.119396960293771</v>
+        <v>0.1198657455803764</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1806233511671066</v>
+        <v>0.1881535424388025</v>
       </c>
     </row>
     <row r="5">
@@ -3634,19 +3634,19 @@
         <v>25444</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>16737</v>
+        <v>16690</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>37034</v>
+        <v>36178</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.09217047098812636</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06063116547445772</v>
+        <v>0.0604593844364967</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1341536852391285</v>
+        <v>0.1310541690702098</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>32</v>
@@ -3655,19 +3655,19 @@
         <v>32090</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>22837</v>
+        <v>22622</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>45254</v>
+        <v>43930</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.149831284910953</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1066265826791792</v>
+        <v>0.1056262945285035</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2112959532432844</v>
+        <v>0.2051118567529772</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>55</v>
@@ -3676,19 +3676,19 @@
         <v>57534</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>44179</v>
+        <v>44951</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>74750</v>
+        <v>73096</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1173617988484701</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09011991185626138</v>
+        <v>0.09169487764371285</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.152480626566239</v>
+        <v>0.1491068180521959</v>
       </c>
     </row>
     <row r="6">
@@ -3705,19 +3705,19 @@
         <v>51812</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>39616</v>
+        <v>39803</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>66277</v>
+        <v>65998</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1876896975442927</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1435086047118494</v>
+        <v>0.1441862955117018</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2400891973098199</v>
+        <v>0.2390787301301987</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>38</v>
@@ -3726,19 +3726,19 @@
         <v>38737</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>28465</v>
+        <v>28902</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>49699</v>
+        <v>52168</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1808662792144737</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1329041207596456</v>
+        <v>0.1349470137450428</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2320505570762135</v>
+        <v>0.2435789577139343</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>86</v>
@@ -3747,19 +3747,19 @@
         <v>90549</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>74055</v>
+        <v>73891</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>108691</v>
+        <v>108224</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1847086267514869</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1510627786248848</v>
+        <v>0.1507287795170262</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2217157719394109</v>
+        <v>0.2207635869080709</v>
       </c>
     </row>
     <row r="7">
@@ -3776,19 +3776,19 @@
         <v>71158</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>55749</v>
+        <v>55504</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>88584</v>
+        <v>86964</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2577700286113662</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2019518175031809</v>
+        <v>0.2010641083288552</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3208957924235782</v>
+        <v>0.3150263687462415</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>39</v>
@@ -3797,19 +3797,19 @@
         <v>39228</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>29409</v>
+        <v>29275</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>52656</v>
+        <v>51152</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1831583598427263</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1373113103370978</v>
+        <v>0.136688718184518</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2458550613771508</v>
+        <v>0.2388340934280973</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>102</v>
@@ -3818,19 +3818,19 @@
         <v>110386</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>91820</v>
+        <v>93302</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>130329</v>
+        <v>132177</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2251730726843515</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1873008063435977</v>
+        <v>0.1903234693920169</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2658542388237171</v>
+        <v>0.2696233557210972</v>
       </c>
     </row>
     <row r="8">
@@ -3847,19 +3847,19 @@
         <v>95375</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>80735</v>
+        <v>79387</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>111541</v>
+        <v>111697</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3454939450142833</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2924634341514556</v>
+        <v>0.2875792604386023</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.404054823628101</v>
+        <v>0.4046215053562068</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>61</v>
@@ -3868,19 +3868,19 @@
         <v>63377</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>51309</v>
+        <v>49703</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>77364</v>
+        <v>77533</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2959134966279897</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2395686950882761</v>
+        <v>0.2320689686302892</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3612192287252645</v>
+        <v>0.3620106834703009</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>150</v>
@@ -3889,19 +3889,19 @@
         <v>158752</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>136596</v>
+        <v>136753</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>179070</v>
+        <v>179347</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3238328333200635</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2786385348922596</v>
+        <v>0.2789593358560388</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3652797936244392</v>
+        <v>0.3658450842778423</v>
       </c>
     </row>
     <row r="9">
@@ -3993,19 +3993,19 @@
         <v>43262</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>31883</v>
+        <v>31948</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>55709</v>
+        <v>55915</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1778612326956631</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1310773811458719</v>
+        <v>0.1313442858729683</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2290314884731875</v>
+        <v>0.2298772507306394</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>32</v>
@@ -4014,19 +4014,19 @@
         <v>33702</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>23707</v>
+        <v>23961</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>47235</v>
+        <v>46632</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1781525885315313</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1253164650225075</v>
+        <v>0.1266618203774526</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2496893616280532</v>
+        <v>0.2465001508931592</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>72</v>
@@ -4035,19 +4035,19 @@
         <v>76965</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>62839</v>
+        <v>62137</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>95867</v>
+        <v>94108</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1779886977879962</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1453222258685667</v>
+        <v>0.1436972982562795</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2217013007781577</v>
+        <v>0.2176348853766739</v>
       </c>
     </row>
     <row r="11">
@@ -4064,19 +4064,19 @@
         <v>29978</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>20143</v>
+        <v>19558</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>43253</v>
+        <v>42052</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1232477126527338</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08281031250878511</v>
+        <v>0.08040888521451463</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1778214550690032</v>
+        <v>0.1728846073123315</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>25</v>
@@ -4085,19 +4085,19 @@
         <v>26323</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>17046</v>
+        <v>18122</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>36565</v>
+        <v>38774</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1391461802340236</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0901059261470227</v>
+        <v>0.09579244438632882</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1932852219301377</v>
+        <v>0.2049600883657799</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>51</v>
@@ -4106,19 +4106,19 @@
         <v>56302</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>42643</v>
+        <v>42703</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>73061</v>
+        <v>71671</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.130203123832897</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.09861541012379321</v>
+        <v>0.098754923847454</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1689601636777386</v>
+        <v>0.1657471823409334</v>
       </c>
     </row>
     <row r="12">
@@ -4135,19 +4135,19 @@
         <v>56136</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>43910</v>
+        <v>43001</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>72408</v>
+        <v>70277</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2307886483341476</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1805227464966372</v>
+        <v>0.1767846909807534</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2976838716799423</v>
+        <v>0.2889255164777003</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>42</v>
@@ -4156,19 +4156,19 @@
         <v>41911</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>31274</v>
+        <v>30560</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>54098</v>
+        <v>53526</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2215447498197924</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1653154984405291</v>
+        <v>0.1615404840339438</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2859647652242018</v>
+        <v>0.2829403176881473</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>94</v>
@@ -4177,19 +4177,19 @@
         <v>98047</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>82580</v>
+        <v>80529</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>118866</v>
+        <v>116125</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2267445406397239</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1909753625834426</v>
+        <v>0.1862317904854104</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2748903879978321</v>
+        <v>0.2685516284894114</v>
       </c>
     </row>
     <row r="13">
@@ -4206,19 +4206,19 @@
         <v>49614</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>37861</v>
+        <v>37695</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>62394</v>
+        <v>63477</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2039759253165852</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1556550463763268</v>
+        <v>0.1549726935946283</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2565145341036205</v>
+        <v>0.2609675366303291</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>38</v>
@@ -4227,19 +4227,19 @@
         <v>38873</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>29242</v>
+        <v>27715</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>51741</v>
+        <v>50560</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.205486340446288</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1545745049911769</v>
+        <v>0.1465050604228282</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2735053742541114</v>
+        <v>0.2672644239536078</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>86</v>
@@ -4248,19 +4248,19 @@
         <v>88488</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>72638</v>
+        <v>72236</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>106541</v>
+        <v>105326</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2046367159384553</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1679837439765558</v>
+        <v>0.1670538172832403</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2463860331567946</v>
+        <v>0.2435770854872493</v>
       </c>
     </row>
     <row r="14">
@@ -4277,19 +4277,19 @@
         <v>64245</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>50071</v>
+        <v>49875</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>80240</v>
+        <v>79433</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2641264810008703</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2058524799084516</v>
+        <v>0.2050469126951423</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3298854677665476</v>
+        <v>0.3265648825342337</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>45</v>
@@ -4298,19 +4298,19 @@
         <v>48367</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>36634</v>
+        <v>36560</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>62339</v>
+        <v>61562</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2556701409683647</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1936493742741645</v>
+        <v>0.1932602800106968</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3295296454009537</v>
+        <v>0.3254202199230019</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>102</v>
@@ -4319,19 +4319,19 @@
         <v>112612</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>93416</v>
+        <v>93788</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>131899</v>
+        <v>130117</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2604269218009276</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2160340811122697</v>
+        <v>0.2168940898821059</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3050297528837316</v>
+        <v>0.300908567759931</v>
       </c>
     </row>
     <row r="15">
@@ -4423,19 +4423,19 @@
         <v>19386</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>12241</v>
+        <v>11921</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>29496</v>
+        <v>29753</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08961659879952441</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05658738629144592</v>
+        <v>0.05510906198050429</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1363492058217932</v>
+        <v>0.1375380325988413</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -4444,19 +4444,19 @@
         <v>4549</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1641</v>
+        <v>1502</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10750</v>
+        <v>10791</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0698520927074389</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02520164878572111</v>
+        <v>0.02306265261728243</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1650907212606502</v>
+        <v>0.1657080535094134</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>22</v>
@@ -4465,19 +4465,19 @@
         <v>23935</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>15169</v>
+        <v>15536</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>35466</v>
+        <v>34502</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08504365756021139</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.053896290076272</v>
+        <v>0.0552029650549143</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.126016264341287</v>
+        <v>0.1225901590586317</v>
       </c>
     </row>
     <row r="17">
@@ -4494,19 +4494,19 @@
         <v>15471</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9196</v>
+        <v>8664</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>24405</v>
+        <v>24987</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07151960333260104</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04251175064700472</v>
+        <v>0.04005131048197003</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1128174212285587</v>
+        <v>0.1155055296277559</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -4515,19 +4515,19 @@
         <v>6136</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2589</v>
+        <v>2643</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>12200</v>
+        <v>12551</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.09422584751444553</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03975702861828435</v>
+        <v>0.04058669285767663</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1873495754044344</v>
+        <v>0.1927460905482969</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>21</v>
@@ -4536,19 +4536,19 @@
         <v>21607</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>13483</v>
+        <v>13572</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>32444</v>
+        <v>31643</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.07677317860158525</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04790798240122384</v>
+        <v>0.04822201790854271</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1152781225848475</v>
+        <v>0.1124315887608069</v>
       </c>
     </row>
     <row r="18">
@@ -4565,19 +4565,19 @@
         <v>49388</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>37696</v>
+        <v>38225</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>62845</v>
+        <v>62308</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2283062849893649</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1742551008752116</v>
+        <v>0.1767002695932942</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2905098104346352</v>
+        <v>0.2880283482431814</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>8</v>
@@ -4586,19 +4586,19 @@
         <v>7718</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>3048</v>
+        <v>3765</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>13812</v>
+        <v>13839</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1185205970876455</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.0468043350270668</v>
+        <v>0.05781408835530031</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2121035219361097</v>
+        <v>0.2125223420597304</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>55</v>
@@ -4607,19 +4607,19 @@
         <v>57106</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>44242</v>
+        <v>44079</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>70956</v>
+        <v>71867</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2029050178211881</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.157198682752214</v>
+        <v>0.1566160912223537</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2521139776072644</v>
+        <v>0.2553510704071682</v>
       </c>
     </row>
     <row r="19">
@@ -4636,19 +4636,19 @@
         <v>61122</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>46385</v>
+        <v>48249</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>75210</v>
+        <v>74483</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.28254928100313</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2144206907608912</v>
+        <v>0.223038491845351</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.347669873093404</v>
+        <v>0.3443086656122973</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>18</v>
@@ -4657,19 +4657,19 @@
         <v>18424</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>12395</v>
+        <v>11647</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>26540</v>
+        <v>26742</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2829396976370442</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1903404969700261</v>
+        <v>0.1788671938488702</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4075677268271817</v>
+        <v>0.4106649910748607</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>74</v>
@@ -4678,19 +4678,19 @@
         <v>79547</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>64633</v>
+        <v>64117</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>97392</v>
+        <v>95402</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2826396122422423</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2296483491188925</v>
+        <v>0.2278151654205219</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3460443801773804</v>
+        <v>0.3389751715056575</v>
       </c>
     </row>
     <row r="20">
@@ -4707,19 +4707,19 @@
         <v>70956</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>56388</v>
+        <v>57314</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>84946</v>
+        <v>85453</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3280082318753795</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2606619031674933</v>
+        <v>0.2649452421713595</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3926767003336795</v>
+        <v>0.3950205587289273</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>28</v>
@@ -4728,19 +4728,19 @@
         <v>28291</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>20278</v>
+        <v>21138</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>36348</v>
+        <v>36626</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4344617650534259</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3114079096446432</v>
+        <v>0.3246128372396475</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5581921213962813</v>
+        <v>0.5624485986796057</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>95</v>
@@ -4749,19 +4749,19 @@
         <v>99248</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>83992</v>
+        <v>83275</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>116492</v>
+        <v>115466</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3526385337747729</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2984323034998584</v>
+        <v>0.2958871872487985</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4139100090072464</v>
+        <v>0.4102650550072283</v>
       </c>
     </row>
     <row r="21">
@@ -4853,19 +4853,19 @@
         <v>72859</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>57650</v>
+        <v>55548</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>89742</v>
+        <v>90063</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1493919305785291</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1182070823416364</v>
+        <v>0.1138967695770203</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1840100127732825</v>
+        <v>0.1846688288352765</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>79</v>
@@ -4874,19 +4874,19 @@
         <v>80519</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>64721</v>
+        <v>66519</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>96973</v>
+        <v>97110</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2206340914666706</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1773473372684704</v>
+        <v>0.1822718983315609</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2657211009052177</v>
+        <v>0.2660979560799983</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>147</v>
@@ -4895,19 +4895,19 @@
         <v>153377</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>132917</v>
+        <v>131872</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>176898</v>
+        <v>175934</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1798844684271507</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1558886419811205</v>
+        <v>0.1546623523181231</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2074706706767082</v>
+        <v>0.2063400378741925</v>
       </c>
     </row>
     <row r="23">
@@ -4924,19 +4924,19 @@
         <v>79227</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>64452</v>
+        <v>64844</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>97765</v>
+        <v>97365</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1624490016705937</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1321549804862719</v>
+        <v>0.1329583107460829</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2004604618230107</v>
+        <v>0.1996397499413796</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>57</v>
@@ -4945,19 +4945,19 @@
         <v>56631</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>42732</v>
+        <v>44176</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>71250</v>
+        <v>70236</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1551778089997627</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1170933872492125</v>
+        <v>0.1210490768494379</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1952356030027494</v>
+        <v>0.1924588757147626</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>131</v>
@@ -4966,19 +4966,19 @@
         <v>135857</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>113308</v>
+        <v>115081</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>156556</v>
+        <v>159181</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1593368400663429</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1328909405365238</v>
+        <v>0.1349699915873719</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1836126926412134</v>
+        <v>0.1866919399058787</v>
       </c>
     </row>
     <row r="24">
@@ -4995,19 +4995,19 @@
         <v>123716</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>104379</v>
+        <v>104101</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>143764</v>
+        <v>143203</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2536714148211188</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.214021759583501</v>
+        <v>0.2134530689202467</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2947794554760206</v>
+        <v>0.2936279214719489</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>90</v>
@@ -5016,19 +5016,19 @@
         <v>91449</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>76315</v>
+        <v>76305</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>108641</v>
+        <v>107671</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2505849858496887</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2091145859328085</v>
+        <v>0.2090875146871236</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2976927292246029</v>
+        <v>0.2950347214040405</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>209</v>
@@ -5037,19 +5037,19 @@
         <v>215165</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>191923</v>
+        <v>190471</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>242294</v>
+        <v>243108</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2523503845343454</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2250923929572676</v>
+        <v>0.2233893610880367</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2841682700335404</v>
+        <v>0.2851229877732679</v>
       </c>
     </row>
     <row r="25">
@@ -5066,19 +5066,19 @@
         <v>106403</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>87843</v>
+        <v>89356</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>124968</v>
+        <v>125822</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.218172936738394</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1801174548966538</v>
+        <v>0.1832181629586968</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2562386296053044</v>
+        <v>0.2579890900036994</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>66</v>
@@ -5087,19 +5087,19 @@
         <v>65280</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>52296</v>
+        <v>52468</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>80112</v>
+        <v>80457</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1788773463749418</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1432992277368538</v>
+        <v>0.1437716849946451</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2195187601428537</v>
+        <v>0.2204646923379436</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>168</v>
@@ -5108,19 +5108,19 @@
         <v>171683</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>150533</v>
+        <v>148648</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>196341</v>
+        <v>196030</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2013539315102561</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1765490087412512</v>
+        <v>0.1743386707748387</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2302732892623386</v>
+        <v>0.2299085433181134</v>
       </c>
     </row>
     <row r="26">
@@ -5137,19 +5137,19 @@
         <v>105497</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>89694</v>
+        <v>90247</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>126229</v>
+        <v>124749</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2163147161913644</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1839118726808825</v>
+        <v>0.1850456158430021</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.258823623179749</v>
+        <v>0.255790364353052</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>68</v>
@@ -5158,19 +5158,19 @@
         <v>71064</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>56566</v>
+        <v>57507</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>87849</v>
+        <v>87552</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1947257673089362</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1549994104598511</v>
+        <v>0.157577666824669</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2407192978008332</v>
+        <v>0.2399053770414987</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>168</v>
@@ -5179,19 +5179,19 @@
         <v>176560</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>155589</v>
+        <v>152664</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>201718</v>
+        <v>200401</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2070743754619049</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1824783963205977</v>
+        <v>0.17904823016835</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2365805281933565</v>
+        <v>0.2350350012754829</v>
       </c>
     </row>
     <row r="27">
@@ -5283,19 +5283,19 @@
         <v>41207</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>30510</v>
+        <v>30882</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>53781</v>
+        <v>54467</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2134838629026166</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1580667392961445</v>
+        <v>0.1599939422583831</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.278625958162794</v>
+        <v>0.2821787026245874</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>33</v>
@@ -5304,19 +5304,19 @@
         <v>34890</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>24757</v>
+        <v>24376</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>46708</v>
+        <v>47830</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1765499097513837</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1252740246590648</v>
+        <v>0.1233487680352381</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2363526421621123</v>
+        <v>0.2420317906257636</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>68</v>
@@ -5325,19 +5325,19 @@
         <v>76096</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>61178</v>
+        <v>62112</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>94678</v>
+        <v>94046</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1947995560196149</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1566091390490951</v>
+        <v>0.1589997874595865</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2423674957504743</v>
+        <v>0.2407476717506334</v>
       </c>
     </row>
     <row r="29">
@@ -5354,19 +5354,19 @@
         <v>32274</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>22764</v>
+        <v>22786</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>43593</v>
+        <v>44152</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1672031156990969</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1179371139803399</v>
+        <v>0.1180480502073121</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2258433149427011</v>
+        <v>0.2287432569876789</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>22</v>
@@ -5375,19 +5375,19 @@
         <v>22242</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>14554</v>
+        <v>14481</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>33011</v>
+        <v>32295</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1125514290928182</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.07364857429613877</v>
+        <v>0.07327940227777067</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1670426676181201</v>
+        <v>0.163419674241627</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>52</v>
@@ -5396,19 +5396,19 @@
         <v>54516</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>41770</v>
+        <v>41756</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>68823</v>
+        <v>69824</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1395556857030675</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1069276203034147</v>
+        <v>0.1068922056787806</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1761807657172068</v>
+        <v>0.1787420276053355</v>
       </c>
     </row>
     <row r="30">
@@ -5425,19 +5425,19 @@
         <v>40723</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>29585</v>
+        <v>30479</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>52678</v>
+        <v>52518</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2109772799698536</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1532734567860133</v>
+        <v>0.1579036634585963</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2729124305077557</v>
+        <v>0.2720805683863006</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>55</v>
@@ -5446,19 +5446,19 @@
         <v>55466</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>43541</v>
+        <v>43508</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>68014</v>
+        <v>68846</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2806726087589412</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2203257468753266</v>
+        <v>0.2201590598899277</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3441695354171672</v>
+        <v>0.3483756477389802</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>94</v>
@@ -5467,19 +5467,19 @@
         <v>96189</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>79610</v>
+        <v>79775</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>113699</v>
+        <v>113629</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.246235052298607</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2037944391178659</v>
+        <v>0.204214951079557</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2910590083256684</v>
+        <v>0.2908791324242431</v>
       </c>
     </row>
     <row r="31">
@@ -5496,19 +5496,19 @@
         <v>31636</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>21494</v>
+        <v>21293</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>44784</v>
+        <v>42092</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.163899304991599</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.111356321144318</v>
+        <v>0.1103124150964506</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2320170461113253</v>
+        <v>0.218066930239299</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>44</v>
@@ -5517,19 +5517,19 @@
         <v>45679</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>35669</v>
+        <v>34299</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>58765</v>
+        <v>58879</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2311447079992571</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1804953046695976</v>
+        <v>0.1735598350435003</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2973637597996837</v>
+        <v>0.2979406466226022</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>73</v>
@@ -5538,19 +5538,19 @@
         <v>77315</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>62293</v>
+        <v>62843</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>95003</v>
+        <v>95226</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1979176983415202</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1594633870714794</v>
+        <v>0.1608711504267703</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2431984786468167</v>
+        <v>0.2437701246658228</v>
       </c>
     </row>
     <row r="32">
@@ -5567,19 +5567,19 @@
         <v>47182</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>35679</v>
+        <v>35146</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>61380</v>
+        <v>60629</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.244436436436834</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1848428432371192</v>
+        <v>0.1820836601358279</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3179963888609389</v>
+        <v>0.3141058788711731</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>38</v>
@@ -5588,19 +5588,19 @@
         <v>39342</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>28789</v>
+        <v>29061</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>51335</v>
+        <v>50875</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1990813443975998</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1456809028971302</v>
+        <v>0.1470563426006397</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2597699386481075</v>
+        <v>0.2574397789863149</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>81</v>
@@ -5609,19 +5609,19 @@
         <v>86524</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>69839</v>
+        <v>69856</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>104528</v>
+        <v>104234</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2214920076371904</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1787800326659991</v>
+        <v>0.1788242474149935</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2675813508762495</v>
+        <v>0.2668290646470124</v>
       </c>
     </row>
     <row r="33">
@@ -5713,19 +5713,19 @@
         <v>208978</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>183388</v>
+        <v>181826</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>238305</v>
+        <v>236424</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1475483343963626</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1294803330236287</v>
+        <v>0.1283777774177462</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1682542780958702</v>
+        <v>0.1669265591172341</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>187</v>
@@ -5734,19 +5734,19 @@
         <v>194402</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>169012</v>
+        <v>167794</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>218815</v>
+        <v>219797</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1885509849057265</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1639258597868219</v>
+        <v>0.1627442102388302</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2122298190682848</v>
+        <v>0.2131821009191019</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>377</v>
@@ -5755,19 +5755,19 @@
         <v>403380</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>365674</v>
+        <v>366730</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>445199</v>
+        <v>444363</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1648219734477196</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1494154745491723</v>
+        <v>0.1498468718613651</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1819095197712868</v>
+        <v>0.1815680980832071</v>
       </c>
     </row>
     <row r="35">
@@ -5784,19 +5784,19 @@
         <v>182394</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>158142</v>
+        <v>155028</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>209817</v>
+        <v>208001</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1287787342131426</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1116559748305286</v>
+        <v>0.1094568572342605</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1481403552198892</v>
+        <v>0.1468581743716836</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>142</v>
@@ -5805,19 +5805,19 @@
         <v>143422</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>120499</v>
+        <v>121644</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>164805</v>
+        <v>165773</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1391057763080149</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1168724573134106</v>
+        <v>0.1179826715743455</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1598456376700654</v>
+        <v>0.160784270222658</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>310</v>
@@ -5826,19 +5826,19 @@
         <v>325816</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>289808</v>
+        <v>292468</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>361185</v>
+        <v>363792</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1331293211971293</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1184164858443509</v>
+        <v>0.119503324235477</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1475812280972632</v>
+        <v>0.1486463335994677</v>
       </c>
     </row>
     <row r="36">
@@ -5855,19 +5855,19 @@
         <v>321776</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>289648</v>
+        <v>289967</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>352294</v>
+        <v>353310</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2271887602125272</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2045052214571888</v>
+        <v>0.2047300582863866</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2487358701684181</v>
+        <v>0.2494530344494705</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>233</v>
@@ -5876,19 +5876,19 @@
         <v>235281</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>210490</v>
+        <v>209842</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>264322</v>
+        <v>263732</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.228200015636868</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2041551366759463</v>
+        <v>0.2035272514088734</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2563672406225549</v>
+        <v>0.2557948159339601</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>538</v>
@@ -5897,19 +5897,19 @@
         <v>557056</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>519399</v>
+        <v>517002</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>601156</v>
+        <v>600763</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2276147829445162</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2122277420817557</v>
+        <v>0.211248248569471</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2456339285116118</v>
+        <v>0.2454732556189893</v>
       </c>
     </row>
     <row r="37">
@@ -5926,19 +5926,19 @@
         <v>319934</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>286474</v>
+        <v>290175</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>351649</v>
+        <v>353972</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2258885385277978</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.202264330204255</v>
+        <v>0.2048771049033186</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2482806712726814</v>
+        <v>0.2499205742673034</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>205</v>
@@ -5947,19 +5947,19 @@
         <v>207484</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>184616</v>
+        <v>182459</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>235178</v>
+        <v>235450</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2012394811178348</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1790603280391553</v>
+        <v>0.1769682871598592</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2281006554866628</v>
+        <v>0.2283637519774418</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>503</v>
@@ -5968,19 +5968,19 @@
         <v>527418</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>488536</v>
+        <v>486775</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>569899</v>
+        <v>568833</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2155043581061287</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.199616941638034</v>
+        <v>0.198897550881114</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2328620819405217</v>
+        <v>0.2324267009358814</v>
       </c>
     </row>
     <row r="38">
@@ -5997,19 +5997,19 @@
         <v>383255</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>348364</v>
+        <v>346574</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>420645</v>
+        <v>415251</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.2705956326501697</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2459609602044038</v>
+        <v>0.2446975112633692</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2969949709355487</v>
+        <v>0.2931865264868005</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>240</v>
@@ -6018,19 +6018,19 @@
         <v>250441</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>221207</v>
+        <v>223624</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>278209</v>
+        <v>278240</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.2429037420315558</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2145495342990748</v>
+        <v>0.2168939235207479</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2698362548442875</v>
+        <v>0.2698662620336998</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>596</v>
@@ -6039,19 +6039,19 @@
         <v>633695</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>591564</v>
+        <v>588699</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>682267</v>
+        <v>677639</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.2589295643045062</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.2417144844705012</v>
+        <v>0.2405441326338255</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2787763225470126</v>
+        <v>0.276885150388859</v>
       </c>
     </row>
     <row r="39">
